--- a/data/trans_dic/IP09B01-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/IP09B01-Habitat-trans_dic.xlsx
@@ -646,7 +646,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>Menos de 2</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -656,62 +656,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>63,35%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>51,06%</t>
+          <t>78,63%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>59,14%</t>
+          <t>50,75%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>62,03%</t>
+          <t>54,5%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>87,24%</t>
+          <t>62,15%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>60,13%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>52,91%</t>
+          <t>50,76%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>83,73%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>71,75%</t>
+          <t>80,29%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>55,37%</t>
+          <t>86,53%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>56,06%</t>
+          <t>50,76%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>71,18%</t>
+          <t>71,32%</t>
         </is>
       </c>
     </row>
@@ -724,62 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>48,26; 77,78</t>
+          <t>55,59; 100</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>36,04; 64,94</t>
+          <t>15,55; 100,0</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>39,83; 75,88</t>
+          <t>0,0; 100,0</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>44,23; 77,43</t>
+          <t>0,0; 100,0</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>70,39; 95,94</t>
+          <t>0,0; 100,0</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>46,11; 73,54</t>
+          <t>55,59; 100</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>35,79; 71,67</t>
+          <t>0,0; 100,0</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>64,76; 94,76</t>
+          <t>55,59; 100</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>58,95; 81,2</t>
+          <t>27,68; 100,0</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>43,43; 64,66</t>
+          <t>47,52; 100,0</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>43,24; 69,29</t>
+          <t>0,0; 100,0</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>58,21; 81,84</t>
+          <t>29,73; 100,0</t>
         </is>
       </c>
     </row>
@@ -926,7 +926,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>10/50</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -936,62 +936,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>73,33%</t>
+          <t>63,35%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>61,36%</t>
+          <t>51,06%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>54,73%</t>
+          <t>59,14%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>60,14%</t>
+          <t>62,03%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>60,73%</t>
+          <t>87,24%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>72,81%</t>
+          <t>60,13%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>79,14%</t>
+          <t>52,91%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>59,48%</t>
+          <t>83,73%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>67,05%</t>
+          <t>71,75%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>66,46%</t>
+          <t>55,37%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>65,73%</t>
+          <t>56,06%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>59,89%</t>
+          <t>71,18%</t>
         </is>
       </c>
     </row>
@@ -1004,69 +1004,69 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>54,69; 85,25</t>
+          <t>48,26; 77,78</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>45,0; 78,12</t>
+          <t>36,04; 64,94</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>31,81; 77,79</t>
+          <t>39,83; 75,88</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>43,09; 76,12</t>
+          <t>44,23; 77,43</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>42,63; 77,45</t>
+          <t>70,39; 95,94</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>54,47; 86,7</t>
+          <t>46,11; 73,54</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>50,91; 93,76</t>
+          <t>35,79; 71,67</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>38,84; 81,31</t>
+          <t>64,76; 94,76</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>54,98; 78,66</t>
+          <t>58,95; 81,2</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>53,88; 76,53</t>
+          <t>43,43; 64,66</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>47,27; 81,1</t>
+          <t>43,24; 69,29</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>46,58; 71,86</t>
+          <t>58,21; 81,84</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>mas de 50</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1076,62 +1076,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>100,0%</t>
+          <t>70,11%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>78,63%</t>
+          <t>70,64%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>50,75%</t>
+          <t>46,48%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>54,5%</t>
+          <t>71,52%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>62,15%</t>
+          <t>38,86%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>100,0%</t>
+          <t>56,71%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>50,76%</t>
+          <t>53,73%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>100,0%</t>
+          <t>72,83%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>80,29%</t>
+          <t>59,53%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>86,53%</t>
+          <t>64,62%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>50,76%</t>
+          <t>50,1%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>71,32%</t>
+          <t>72,08%</t>
         </is>
       </c>
     </row>
@@ -1144,69 +1144,69 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>55,59; 100</t>
+          <t>49,41; 86,7</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>15,55; 100,0</t>
+          <t>54,58; 83,45</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 100,0</t>
+          <t>19,4; 74,87</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 100,0</t>
+          <t>50,85; 87,73</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 100,0</t>
+          <t>14,13; 68,32</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>55,59; 100</t>
+          <t>39,19; 74,47</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 100,0</t>
+          <t>28,97; 77,84</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>55,59; 100</t>
+          <t>48,02; 89,87</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>27,68; 100,0</t>
+          <t>42,81; 74,16</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>47,52; 100,0</t>
+          <t>53,24; 75,7</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 100,0</t>
+          <t>32,48; 68,18</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>29,73; 100,0</t>
+          <t>56,77; 83,4</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1216,62 +1216,62 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>70,11%</t>
+          <t>73,33%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>70,64%</t>
+          <t>61,36%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>46,48%</t>
+          <t>54,73%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>71,52%</t>
+          <t>60,14%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>38,86%</t>
+          <t>60,73%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>56,71%</t>
+          <t>72,81%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>53,73%</t>
+          <t>79,14%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>72,83%</t>
+          <t>59,48%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>59,53%</t>
+          <t>67,05%</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>64,62%</t>
+          <t>66,46%</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>50,1%</t>
+          <t>65,73%</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>72,08%</t>
+          <t>59,89%</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>49,41; 86,7</t>
+          <t>54,69; 85,25</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>54,58; 83,45</t>
+          <t>45,0; 78,12</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>19,4; 74,87</t>
+          <t>31,81; 77,79</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>50,85; 87,73</t>
+          <t>43,09; 76,12</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>14,13; 68,32</t>
+          <t>42,63; 77,45</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>39,19; 74,47</t>
+          <t>54,47; 86,7</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>28,97; 77,84</t>
+          <t>50,91; 93,76</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>48,02; 89,87</t>
+          <t>38,84; 81,31</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>42,81; 74,16</t>
+          <t>54,98; 78,66</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>53,24; 75,7</t>
+          <t>53,88; 76,53</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>32,48; 68,18</t>
+          <t>47,27; 81,1</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>56,77; 83,4</t>
+          <t>46,58; 71,86</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/IP09B01-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/IP09B01-Habitat-trans_dic.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N15"/>
+  <dimension ref="A1:N16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -764,12 +764,12 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>27,68; 100,0</t>
+          <t>22,53; 100,0</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>47,52; 100,0</t>
+          <t>46,29; 100,0</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>38,1; 77,24</t>
+          <t>37,03; 77,15</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>37,79; 83,17</t>
+          <t>37,85; 82,91</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>34,74; 91,41</t>
+          <t>33,04; 91,19</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>66,89; 98,25</t>
+          <t>64,25; 98,2</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>33,82; 90,43</t>
+          <t>27,61; 84,11</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>43,09; 88,3</t>
+          <t>42,46; 88,02</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 62,53</t>
+          <t>0,0; 65,57</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>47,46; 90,47</t>
+          <t>51,05; 92,39</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>41,99; 76,43</t>
+          <t>40,91; 75,58</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>47,79; 81,69</t>
+          <t>46,29; 81,42</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>27,94; 73,06</t>
+          <t>30,6; 73,02</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>66,7; 93,97</t>
+          <t>67,35; 94,42</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>48,26; 77,78</t>
+          <t>46,67; 76,58</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>36,04; 64,94</t>
+          <t>36,39; 65,49</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>39,83; 75,88</t>
+          <t>40,55; 76,18</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>44,23; 77,43</t>
+          <t>44,18; 76,17</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>70,39; 95,94</t>
+          <t>66,33; 95,81</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>46,11; 73,54</t>
+          <t>45,0; 73,91</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>35,79; 71,67</t>
+          <t>35,19; 69,77</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>64,76; 94,76</t>
+          <t>66,37; 95,03</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>58,95; 81,2</t>
+          <t>59,7; 82,58</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>43,43; 64,66</t>
+          <t>43,67; 65,17</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>43,24; 69,29</t>
+          <t>42,97; 68,18</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>58,21; 81,84</t>
+          <t>58,97; 82,26</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>49,41; 86,7</t>
+          <t>49,21; 87,15</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>54,58; 83,45</t>
+          <t>55,49; 83,5</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>19,4; 74,87</t>
+          <t>23,62; 73,69</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>50,85; 87,73</t>
+          <t>49,86; 86,0</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>14,13; 68,32</t>
+          <t>14,82; 70,92</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>39,19; 74,47</t>
+          <t>37,71; 71,96</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>28,97; 77,84</t>
+          <t>27,02; 77,44</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>48,02; 89,87</t>
+          <t>49,98; 89,61</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>42,81; 74,16</t>
+          <t>42,8; 75,23</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>53,24; 75,7</t>
+          <t>52,11; 75,15</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>32,48; 68,18</t>
+          <t>32,25; 69,38</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>56,77; 83,4</t>
+          <t>56,82; 84,18</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>54,69; 85,25</t>
+          <t>57,91; 87,81</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>45,0; 78,12</t>
+          <t>43,44; 76,38</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>31,81; 77,79</t>
+          <t>31,79; 76,88</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>43,09; 76,12</t>
+          <t>42,77; 76,28</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>42,63; 77,45</t>
+          <t>40,48; 76,4</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>54,47; 86,7</t>
+          <t>53,11; 86,48</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>50,91; 93,76</t>
+          <t>50,91; 93,83</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>38,84; 81,31</t>
+          <t>37,21; 80,32</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>54,98; 78,66</t>
+          <t>54,21; 77,8</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>53,88; 76,53</t>
+          <t>53,79; 76,87</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>47,27; 81,1</t>
+          <t>46,4; 80,51</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>46,58; 71,86</t>
+          <t>46,8; 72,94</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1424,69 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>58,47; 75,05</t>
+          <t>58,22; 75,23</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>54,12; 70,26</t>
+          <t>52,55; 69,25</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>45,52; 68,46</t>
+          <t>45,35; 67,82</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>58,56; 76,4</t>
+          <t>58,01; 76,22</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>54,32; 74,63</t>
+          <t>54,33; 75,04</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>55,68; 73,21</t>
+          <t>56,62; 73,63</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>42,92; 66,39</t>
+          <t>42,93; 66,61</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>63,95; 82,03</t>
+          <t>63,65; 82,22</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>60,18; 73,77</t>
+          <t>59,38; 73,1</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>56,92; 68,92</t>
+          <t>56,37; 68,87</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>47,09; 63,67</t>
+          <t>47,28; 63,4</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>63,11; 76,86</t>
+          <t>62,91; 76,79</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/IP09B01-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/IP09B01-Habitat-trans_dic.xlsx
@@ -578,7 +578,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -598,7 +598,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -618,7 +618,7 @@
       </c>
       <c r="M2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="N2" s="3" t="inlineStr">
@@ -646,7 +646,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>&lt;2.000hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -729,7 +729,7 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>15,55; 100,0</t>
+          <t>21,37; 100,0</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -764,12 +764,12 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>22,53; 100,0</t>
+          <t>26,03; 100,0</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>46,29; 100,0</t>
+          <t>45,01; 100,0</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
@@ -779,14 +779,14 @@
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>29,73; 100,0</t>
+          <t>28,22; 100,0</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>2-10.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -864,69 +864,69 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>37,03; 77,15</t>
+          <t>37,33; 78,01</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>37,85; 82,91</t>
+          <t>38,26; 88,19</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>33,04; 91,19</t>
+          <t>39,67; 91,12</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>64,25; 98,2</t>
+          <t>67,74; 99,7</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>27,61; 84,11</t>
+          <t>32,92; 90,28</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>42,46; 88,02</t>
+          <t>40,81; 88,1</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 65,57</t>
+          <t>0,0; 62,07</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>51,05; 92,39</t>
+          <t>48,72; 91,49</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>40,91; 75,58</t>
+          <t>39,19; 74,11</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>46,29; 81,42</t>
+          <t>49,96; 82,66</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>30,6; 73,02</t>
+          <t>30,01; 70,12</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>67,35; 94,42</t>
+          <t>67,13; 93,4</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -1004,69 +1004,69 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>46,67; 76,58</t>
+          <t>48,03; 75,85</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>36,39; 65,49</t>
+          <t>36,99; 66,52</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>40,55; 76,18</t>
+          <t>40,11; 77,69</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>44,18; 76,17</t>
+          <t>43,33; 76,53</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>66,33; 95,81</t>
+          <t>67,15; 95,87</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>45,0; 73,91</t>
+          <t>45,54; 73,4</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>35,19; 69,77</t>
+          <t>32,77; 68,62</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>66,37; 95,03</t>
+          <t>66,61; 94,65</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>59,7; 82,58</t>
+          <t>60,46; 81,7</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>43,67; 65,17</t>
+          <t>44,48; 65,67</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>42,97; 68,18</t>
+          <t>42,36; 68,62</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>58,97; 82,26</t>
+          <t>57,04; 82,05</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>&gt;50.000hab</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>49,21; 87,15</t>
+          <t>49,9; 86,99</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>55,49; 83,5</t>
+          <t>54,95; 82,91</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>23,62; 73,69</t>
+          <t>23,86; 76,2</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>49,86; 86,0</t>
+          <t>49,6; 86,41</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>14,82; 70,92</t>
+          <t>15,18; 68,63</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>37,71; 71,96</t>
+          <t>39,69; 74,45</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>27,02; 77,44</t>
+          <t>27,91; 80,64</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>49,98; 89,61</t>
+          <t>50,11; 89,6</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>42,8; 75,23</t>
+          <t>42,38; 75,77</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>52,11; 75,15</t>
+          <t>53,0; 74,81</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>32,25; 69,38</t>
+          <t>32,75; 69,62</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>56,82; 84,18</t>
+          <t>56,38; 83,29</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>57,91; 87,81</t>
+          <t>57,39; 85,77</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>43,44; 76,38</t>
+          <t>43,06; 75,76</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>31,79; 76,88</t>
+          <t>32,12; 76,91</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>42,77; 76,28</t>
+          <t>43,75; 76,28</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>40,48; 76,4</t>
+          <t>43,22; 78,66</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>53,11; 86,48</t>
+          <t>53,44; 86,96</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>50,91; 93,83</t>
+          <t>48,9; 93,69</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>37,21; 80,32</t>
+          <t>38,66; 80,63</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>54,21; 77,8</t>
+          <t>53,12; 77,99</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>53,79; 76,87</t>
+          <t>54,03; 77,88</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>46,4; 80,51</t>
+          <t>46,3; 80,51</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>46,8; 72,94</t>
+          <t>45,93; 72,66</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1424,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>58,22; 75,23</t>
+          <t>58,56; 75,08</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>52,55; 69,25</t>
+          <t>53,24; 70,2</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>45,35; 67,82</t>
+          <t>45,7; 68,24</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>58,01; 76,22</t>
+          <t>57,56; 77,02</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>54,33; 75,04</t>
+          <t>54,53; 75,3</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>56,62; 73,63</t>
+          <t>55,43; 72,95</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>42,93; 66,61</t>
+          <t>42,09; 66,67</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>63,65; 82,22</t>
+          <t>63,35; 82,52</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>59,38; 73,1</t>
+          <t>60,22; 72,57</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>56,37; 68,87</t>
+          <t>56,93; 68,88</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>47,28; 63,4</t>
+          <t>47,38; 64,13</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>62,91; 76,79</t>
+          <t>63,14; 77,39</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/IP09B01-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/IP09B01-Habitat-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N16"/>
+  <dimension ref="A1:N14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -534,13 +534,13 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Menores que les afecta al nivel de asistencia al cole/guardería dicha enfermedad, dolencia..</t>
+          <t>Menores según si dicha enfermedad o dolencia continuada le ha afectado al nivel de asistencia al cole/guardería</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
       <c r="C1" s="3" t="inlineStr">
         <is>
-          <t>Hombre</t>
+          <t>Niña</t>
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
@@ -548,7 +548,7 @@
       <c r="F1" s="3" t="n"/>
       <c r="G1" s="3" t="inlineStr">
         <is>
-          <t>Mujer</t>
+          <t>Niño</t>
         </is>
       </c>
       <c r="H1" s="3" t="n"/>
@@ -646,7 +646,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>&lt;2.000hab</t>
+          <t>&lt;10.000 hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -656,62 +656,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>100,0%</t>
+          <t>63,38%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>78,63%</t>
+          <t>74,89%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>50,75%</t>
+          <t>32,02%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>54,5%</t>
+          <t>78,0%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>62,15%</t>
+          <t>63,53%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>100,0%</t>
+          <t>68,08%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>50,76%</t>
+          <t>65,3%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>100,0%</t>
+          <t>85,34%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>80,29%</t>
+          <t>63,47%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>86,53%</t>
+          <t>71,25%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>50,76%</t>
+          <t>50,09%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>71,32%</t>
+          <t>82,89%</t>
         </is>
       </c>
     </row>
@@ -724,69 +724,69 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>55,59; 100</t>
+          <t>34,3; 86,21</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>21,37; 100,0</t>
+          <t>51,6; 90,48</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 100,0</t>
+          <t>8,66; 67,9</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 100,0</t>
+          <t>54,56; 92,32</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 100,0</t>
+          <t>41,85; 80,31</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>55,59; 100</t>
+          <t>45,63; 86,1</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 100,0</t>
+          <t>35,92; 86,82</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>55,59; 100</t>
+          <t>62,55; 98,11</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>26,03; 100,0</t>
+          <t>46,84; 77,13</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>45,01; 100,0</t>
+          <t>53,21; 82,74</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 100,0</t>
+          <t>32,39; 70,79</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>28,22; 100,0</t>
+          <t>69,48; 94,49</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2-10.000 hab</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -796,62 +796,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>57,63%</t>
+          <t>87,24%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>63,77%</t>
+          <t>60,13%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>67,03%</t>
+          <t>52,91%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>86,85%</t>
+          <t>86,7%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>63,79%</t>
+          <t>63,35%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>68,8%</t>
+          <t>51,06%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>24,97%</t>
+          <t>59,14%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>74,75%</t>
+          <t>63,4%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>59,75%</t>
+          <t>71,75%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>66,27%</t>
+          <t>55,37%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>49,95%</t>
+          <t>56,06%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>82,1%</t>
+          <t>73,92%</t>
         </is>
       </c>
     </row>
@@ -864,69 +864,69 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>37,33; 78,01</t>
+          <t>70,39; 95,94</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>38,26; 88,19</t>
+          <t>46,11; 73,54</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>39,67; 91,12</t>
+          <t>35,79; 71,67</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>67,74; 99,7</t>
+          <t>70,17; 97,08</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>32,92; 90,28</t>
+          <t>48,26; 77,78</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>40,81; 88,1</t>
+          <t>36,04; 64,94</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 62,07</t>
+          <t>39,83; 75,88</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>48,72; 91,49</t>
+          <t>45,99; 78,49</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>39,19; 74,11</t>
+          <t>58,95; 81,2</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>49,96; 82,66</t>
+          <t>43,43; 64,66</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>30,01; 70,12</t>
+          <t>43,24; 69,29</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>67,13; 93,4</t>
+          <t>61,7; 85,17</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10-50.000 hab</t>
+          <t>&gt;50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -936,62 +936,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>63,35%</t>
+          <t>38,86%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>51,06%</t>
+          <t>56,71%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>59,14%</t>
+          <t>53,73%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>62,03%</t>
+          <t>74,53%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>87,24%</t>
+          <t>70,11%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>60,13%</t>
+          <t>70,64%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>52,91%</t>
+          <t>46,48%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>83,73%</t>
+          <t>71,88%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>71,75%</t>
+          <t>59,53%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>55,37%</t>
+          <t>64,62%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>56,06%</t>
+          <t>50,1%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>71,18%</t>
+          <t>72,97%</t>
         </is>
       </c>
     </row>
@@ -1004,69 +1004,69 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>48,03; 75,85</t>
+          <t>14,13; 68,32</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>36,99; 66,52</t>
+          <t>39,19; 74,47</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>40,11; 77,69</t>
+          <t>28,97; 77,84</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>43,33; 76,53</t>
+          <t>51,82; 90,68</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>67,15; 95,87</t>
+          <t>49,41; 86,7</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>45,54; 73,4</t>
+          <t>54,58; 83,45</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>32,77; 68,62</t>
+          <t>19,4; 74,87</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>66,61; 94,65</t>
+          <t>50,21; 88,03</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>60,46; 81,7</t>
+          <t>42,81; 74,16</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>44,48; 65,67</t>
+          <t>53,24; 75,7</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>42,36; 68,62</t>
+          <t>32,48; 68,18</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>57,04; 82,05</t>
+          <t>57,99; 84,18</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>&gt;50.000hab</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1076,62 +1076,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>70,11%</t>
+          <t>60,73%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>70,64%</t>
+          <t>72,81%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>46,48%</t>
+          <t>79,14%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>71,52%</t>
+          <t>60,15%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>38,86%</t>
+          <t>73,33%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>56,71%</t>
+          <t>61,36%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>53,73%</t>
+          <t>54,73%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>72,83%</t>
+          <t>58,83%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>59,53%</t>
+          <t>67,05%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>64,62%</t>
+          <t>66,46%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>50,1%</t>
+          <t>65,73%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>72,08%</t>
+          <t>59,3%</t>
         </is>
       </c>
     </row>
@@ -1144,69 +1144,69 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>49,9; 86,99</t>
+          <t>42,63; 77,45</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>54,95; 82,91</t>
+          <t>54,47; 86,7</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>23,86; 76,2</t>
+          <t>50,91; 93,76</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>49,6; 86,41</t>
+          <t>39,27; 81,59</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>15,18; 68,63</t>
+          <t>54,69; 85,25</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>39,69; 74,45</t>
+          <t>45,0; 78,12</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>27,91; 80,64</t>
+          <t>31,81; 77,79</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>50,11; 89,6</t>
+          <t>41,48; 74,67</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>42,38; 75,77</t>
+          <t>54,98; 78,66</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>53,0; 74,81</t>
+          <t>53,88; 76,53</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>32,75; 69,62</t>
+          <t>47,27; 81,1</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>56,38; 83,29</t>
+          <t>45,62; 71,35</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1216,62 +1216,62 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>73,33%</t>
+          <t>65,34%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>61,36%</t>
+          <t>65,11%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>54,73%</t>
+          <t>55,21%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>60,14%</t>
+          <t>75,73%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>60,73%</t>
+          <t>67,38%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>72,81%</t>
+          <t>61,63%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>79,14%</t>
+          <t>56,99%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>59,48%</t>
+          <t>69,19%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>67,05%</t>
+          <t>66,56%</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>66,46%</t>
+          <t>63,21%</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>65,73%</t>
+          <t>56,14%</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>59,89%</t>
+          <t>71,75%</t>
         </is>
       </c>
     </row>
@@ -1284,214 +1284,74 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>57,39; 85,77</t>
+          <t>54,32; 74,63</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>43,06; 75,76</t>
+          <t>55,68; 73,21</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>32,12; 76,91</t>
+          <t>42,92; 66,39</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>43,75; 76,28</t>
+          <t>65,69; 83,67</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>43,22; 78,66</t>
+          <t>58,47; 75,05</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>53,44; 86,96</t>
+          <t>54,12; 70,26</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>48,9; 93,69</t>
+          <t>45,52; 68,46</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>38,66; 80,63</t>
+          <t>59,11; 79,0</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>53,12; 77,99</t>
+          <t>60,18; 73,77</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>54,03; 77,88</t>
+          <t>56,92; 68,92</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>46,3; 80,51</t>
+          <t>47,09; 63,67</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>45,93; 72,66</t>
+          <t>64,47; 79,49</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B14" s="3" t="inlineStr">
-        <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>67,38%</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>61,63%</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>56,99%</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>67,8%</t>
-        </is>
-      </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>65,34%</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>65,11%</t>
-        </is>
-      </c>
-      <c r="I14" s="2" t="inlineStr">
-        <is>
-          <t>55,21%</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>73,61%</t>
-        </is>
-      </c>
-      <c r="K14" s="2" t="inlineStr">
-        <is>
-          <t>66,56%</t>
-        </is>
-      </c>
-      <c r="L14" s="2" t="inlineStr">
-        <is>
-          <t>63,21%</t>
-        </is>
-      </c>
-      <c r="M14" s="2" t="inlineStr">
-        <is>
-          <t>56,14%</t>
-        </is>
-      </c>
-      <c r="N14" s="2" t="inlineStr">
-        <is>
-          <t>70,15%</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n"/>
-      <c r="B15" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>58,56; 75,08</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>53,24; 70,2</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>45,7; 68,24</t>
-        </is>
-      </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>57,56; 77,02</t>
-        </is>
-      </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>54,53; 75,3</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>55,43; 72,95</t>
-        </is>
-      </c>
-      <c r="I15" s="2" t="inlineStr">
-        <is>
-          <t>42,09; 66,67</t>
-        </is>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>63,35; 82,52</t>
-        </is>
-      </c>
-      <c r="K15" s="2" t="inlineStr">
-        <is>
-          <t>60,22; 72,57</t>
-        </is>
-      </c>
-      <c r="L15" s="2" t="inlineStr">
-        <is>
-          <t>56,93; 68,88</t>
-        </is>
-      </c>
-      <c r="M15" s="2" t="inlineStr">
-        <is>
-          <t>47,38; 64,13</t>
-        </is>
-      </c>
-      <c r="N15" s="2" t="inlineStr">
-        <is>
-          <t>63,14; 77,39</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
+      <c r="A14" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
@@ -1501,7 +1361,6 @@
     <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="K1:N1"/>
-    <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
